--- a/StructureDefinition-ext-R5-Claim.careTeam.xlsx
+++ b/StructureDefinition-ext-R5-Claim.careTeam.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="175">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -448,7 +448,7 @@
     <t>Extension.extension:provider.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -528,15 +528,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The role codes for the care team members.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-claim-careteamrole-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:specialty</t>
   </si>
   <si>
@@ -566,9 +557,6 @@
   </si>
   <si>
     <t>Extension.extension:specialty.value[x]</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-provider-qualification-for-R4</t>
   </si>
   <si>
     <t>base64Binary
@@ -928,8 +916,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="35.59375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.7734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3422,13 +3410,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3466,13 +3454,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3497,14 +3485,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3573,7 +3561,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3676,7 +3664,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -3781,7 +3769,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -3824,7 +3812,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3886,7 +3874,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -3915,10 +3903,10 @@
         <v>161</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3945,11 +3933,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4118,13 +4108,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
